--- a/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
+++ b/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78CEF8-1FE3-4AFD-B38A-7D6B0FB97512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF953A9A-A433-49E4-A161-C27F53753CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -282,7 +282,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -368,6 +368,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -401,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -469,8 +474,9 @@
     <xf numFmtId="18" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5244,19 +5250,19 @@
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
-        <f t="shared" ref="A3:A13" si="0">G3</f>
+        <f t="shared" ref="A3:A14" si="0">G3</f>
         <v>44266</v>
       </c>
       <c r="B3" s="15">
-        <f t="shared" ref="B3:B13" si="1">H3</f>
+        <f t="shared" ref="B3:B14" si="1">H3</f>
         <v>0.37847222222222221</v>
       </c>
       <c r="C3" s="19">
-        <f t="shared" ref="C3:C13" si="2">D3/305</f>
+        <f t="shared" ref="C3:C14" si="2">D3/305</f>
         <v>6.1400000000000006</v>
       </c>
       <c r="D3" s="19">
-        <f t="shared" ref="D3:D13" si="3">I3</f>
+        <f t="shared" ref="D3:D14" si="3">I3</f>
         <v>1872.7</v>
       </c>
       <c r="E3" s="19">
@@ -5546,7 +5552,7 @@
         <v>0.40208333333333329</v>
       </c>
       <c r="C13" s="19">
-        <f t="shared" si="2"/>
+        <f>D13/305</f>
         <v>6.71</v>
       </c>
       <c r="D13" s="19">
@@ -5564,15 +5570,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="26"/>
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
+++ b/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF953A9A-A433-49E4-A161-C27F53753CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E297E45E-5E3E-4D9D-8101-1A1105686C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2790" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Wells" sheetId="1" r:id="rId1"/>
@@ -5204,7 +5204,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5552,7 +5552,7 @@
         <v>0.40208333333333329</v>
       </c>
       <c r="C13" s="19">
-        <f>D13/305</f>
+        <f t="shared" si="2"/>
         <v>6.71</v>
       </c>
       <c r="D13" s="19">

--- a/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
+++ b/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E297E45E-5E3E-4D9D-8101-1A1105686C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D8CB0-F87E-4E0C-A1D9-0972EBBE1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5204,7 +5204,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
+++ b/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\Programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D8CB0-F87E-4E0C-A1D9-0972EBBE1200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033B442-1F16-4962-8C4C-1FB733465254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Wells" sheetId="1" r:id="rId1"/>
@@ -699,20 +699,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="16" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="15.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" customWidth="1"/>
+    <col min="9" max="9" width="19.109375" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -1614,293 +1614,293 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" s="15"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="15"/>
       <c r="D56" s="19"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
       <c r="D57" s="19"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="16"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C59" s="15"/>
       <c r="D59" s="19"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C60" s="15"/>
       <c r="D60" s="19"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C61" s="15"/>
       <c r="D61" s="19"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C62" s="15"/>
       <c r="D62" s="19"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C63" s="15"/>
       <c r="D63" s="19"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C64" s="15"/>
       <c r="D64" s="19"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C65" s="15"/>
       <c r="D65" s="19"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C66" s="15"/>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C67" s="15"/>
       <c r="D67" s="19"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C68" s="15"/>
       <c r="D68" s="19"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C69" s="15"/>
       <c r="D69" s="19"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="15"/>
       <c r="D70" s="19"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C71" s="15"/>
       <c r="D71" s="19"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="15"/>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C73" s="15"/>
       <c r="D73" s="19"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C74" s="15"/>
       <c r="D74" s="19"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C75" s="15"/>
       <c r="D75" s="19"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C76" s="15"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C77" s="15"/>
       <c r="D77" s="19"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" s="15"/>
       <c r="D78" s="19"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="15"/>
       <c r="D79" s="19"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D80" s="19"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="D81" s="19"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C82" s="15"/>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C83" s="15"/>
       <c r="D83" s="19"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C84" s="15"/>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C85" s="15"/>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C86" s="15"/>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C87" s="15"/>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C88" s="15"/>
       <c r="D88" s="19"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C89" s="15"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C90" s="15"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C91" s="15"/>
       <c r="D91" s="19"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C92" s="15"/>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C93" s="15"/>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C94" s="15"/>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C95" s="15"/>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C96" s="15"/>
       <c r="D96" s="19"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="15"/>
       <c r="D97" s="19"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C98" s="15"/>
       <c r="D98" s="19"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="15"/>
       <c r="D99" s="19"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C100" s="15"/>
       <c r="D100" s="19"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C101" s="15"/>
       <c r="D101" s="19"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C102" s="15"/>
       <c r="D102" s="19"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C103" s="15"/>
       <c r="D103" s="19"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C104" s="15"/>
       <c r="D104" s="19"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C105" s="15"/>
       <c r="D105" s="19"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="15"/>
       <c r="D106" s="19"/>
     </row>
@@ -1918,9 +1918,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>5.5960000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>5.5890000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>5.5620000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>2241.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>2269.2000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -2126,57 +2126,57 @@
         <v>2077.0499999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>1964.2</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>1921.5</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>1753.75</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>1836.1</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>1836.1</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>2135</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>2241.75</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>2269.1999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>2013</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>2077.0500000000002</v>
       </c>
@@ -2195,9 +2195,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>5.5659999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>5.5430000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>2629.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>2729.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>2711.4500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>2519.2999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <v>44266</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>2351.5500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>44273</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2403.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>44276</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>2781.6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>44283</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>2217.35</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>44311</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2192.9499999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>44318</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>44332</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>2629.1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>44340</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>2729.75</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>44347</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>2711.45</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="22">
         <v>44352</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>44359</v>
       </c>
@@ -2539,9 +2539,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>5.3019999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>5.2960000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1817.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>44352</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>1531.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1634.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <v>44266</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1467.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <v>44273</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>44276</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1332.85</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>44283</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>1338.95</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <v>44311</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <v>44318</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <v>44332</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <v>44340</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <v>44347</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1817.8</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <v>44352</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1531.1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <v>44359</v>
       </c>
@@ -2880,9 +2880,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>5.4459999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>5.4260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>5.444</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1872.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>2031.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2083.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>2183.8000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1918.45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44266</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44273</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1823.9</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44276</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1701.9</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44283</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1726.3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44311</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1714.1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44318</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44332</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>2031.3</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44340</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2083.15</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="14">
         <v>44347</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2183.8000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="22">
         <v>44352</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>1918.45</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="14">
         <v>44359</v>
       </c>
@@ -3224,9 +3224,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>5.2240000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>5.226</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>5.2229999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1906.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>2061.7999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1759.85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1875.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>1735.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>1601.25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1610.4</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1906.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>2061.8000000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1759.85</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -3568,9 +3568,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>5.5519999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>5.5590000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>2067.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>2092.3000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1738.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1866.6000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>1753.75</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1558.55</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1625.65</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1653.1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2092.3000000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>1738.5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -3909,9 +3909,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>5.7380000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>5.7839999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>5.798</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2211.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2232.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>1872.6999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>2022.1499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1918.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>1894.05</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>1698.85</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>1802.55</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2211.25</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2232.6</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -4252,9 +4252,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>5.4829999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>5.484</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>5.4740000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="19">
         <v>5.2</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="19">
         <v>4.83</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>1473.15</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="19">
         <v>4.8099999999999996</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>1467.05</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="19">
         <v>4.79</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1460.95</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="19" t="s">
         <v>49</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="19">
         <v>5.85</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="19">
         <v>6.21</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1894.05</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="19">
         <v>6.31</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1924.55</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="19">
         <v>5.27</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1607.35</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="19">
         <v>5.68</v>
       </c>
@@ -4520,9 +4520,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>5.4980000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>5.5129999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>1711.0500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1845.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>1540.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1680.55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1570.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1406.05</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1442.65</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1357.25</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>1711.05</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1845.25</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1540.25</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -4861,9 +4861,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>5.1020000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1796.4499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1939.8000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1778.15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1613.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1555.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1460.95</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1796.45</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -5204,17 +5204,17 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G1" s="24" t="s">
         <v>36</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <f t="shared" ref="A3:A14" si="0">G3</f>
         <v>44266</v>
@@ -5278,7 +5278,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <f t="shared" si="0"/>
         <v>44273</v>
@@ -5308,7 +5308,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>44276</v>
@@ -5344,7 +5344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -5380,7 +5380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -5407,7 +5407,7 @@
         <v>1686.65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>44318</v>
@@ -5434,7 +5434,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>44332</v>
@@ -5461,7 +5461,7 @@
         <v>2058.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>44340</v>
@@ -5488,7 +5488,7 @@
         <v>2147.1999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>44347</v>
@@ -5515,7 +5515,7 @@
         <v>2202.1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>44352</v>
@@ -5542,7 +5542,7 @@
         <v>1912.35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>44359</v>
@@ -5569,7 +5569,7 @@
         <v>2046.55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="28"/>
       <c r="C14" s="33"/>
@@ -5577,19 +5577,19 @@
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5605,9 +5605,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>5.0839999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>5.1340000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>1436.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1604.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>1717.1499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>1512.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>1610.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="14">
         <v>44266</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>1433.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="14">
         <v>44273</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1372.5</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="14">
         <v>44276</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1287.0999999999999</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="14">
         <v>44283</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1308.45</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="14">
         <v>44311</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1265.75</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="14">
         <v>44318</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1436.55</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="14">
         <v>44332</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1604.3</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="14">
         <v>44340</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>1717.15</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="14">
         <v>44347</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="22">
         <v>44352</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>1512.8</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="14">
         <v>44359</v>
       </c>
@@ -5949,9 +5949,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1375.55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5.3440000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>5.3209999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1723.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1869.6499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>1619.55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1375.55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>1485.35</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>1375.55</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1418.25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>1387.75</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1723.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1869.65</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1619.55</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -6293,9 +6293,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>5.1310000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1628.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>1390.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>1253.55</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1140.7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1189.5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1134.5999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>1628.7</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1390.8</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -6637,9 +6637,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>5.3310000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>5.3070000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1942.8500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>1717.1499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1802.55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>1656.15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1592.1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>1500.6</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>1534.15</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1497.55</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>1942.85</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>1717.15</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -6981,9 +6981,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>5.6559999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>5.7489999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>2.1909999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>1997.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1793.3999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>1863.5500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>1711.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1650.05</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>1540.25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>1576.85</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1543.3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>1997.75</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>1793.4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -7325,9 +7325,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>5.2359999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>5.2430000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>5.2409999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>1753.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>1808.6499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1549.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1650.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1476.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>1311.5</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>1338.95</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>1293.2</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1753.75</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>1808.65</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>1549.4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -7671,12 +7671,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>5.1020000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>5.0620000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>4.9669999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>2.9409999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="19">
         <v>5.19</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>1582.95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="21">
         <v>4.9000000000000004</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="19">
         <v>4.6500000000000004</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>1418.25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="19">
         <v>4.75</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="19">
         <v>4.58</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>1396.9</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="19">
         <v>5.0999999999999996</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>1555.5</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="19">
         <v>5.77</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>1759.85</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="19">
         <v>6.1</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="19">
         <v>6.26</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>1909.3</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="19">
         <v>5.31</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1619.55</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="19">
         <v>5.75</v>
       </c>
@@ -7984,12 +7984,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>4.9089999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>4.9089999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>4.9029999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8166,9 +8166,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>4.8659999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>4.8760000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>4.883</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>1869.6499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>2028.25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="19">
         <v>6.3</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>1921.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="21">
         <v>6.03</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>1839.15</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="19">
         <v>5.69</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1735.45</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="19">
         <v>5.9</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>1799.5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="19">
         <v>5.8</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="19" t="s">
         <v>49</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="19" t="s">
         <v>49</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="19">
         <v>7</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="19">
         <v>7.12</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="19">
         <v>6.13</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1869.65</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="19">
         <v>6.65</v>
       </c>
@@ -8521,9 +8521,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>5.4020000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>5.351</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>5.3620000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>2064.85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8725,52 +8725,52 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" s="19">
         <v>2006.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" s="19">
         <v>1967.25</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" s="19">
         <v>1967.25</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F18" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F19" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="19">
         <v>2074</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="19">
         <v>2064.85</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="19">
         <v>2074</v>
       </c>
@@ -8789,9 +8789,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>5.2560000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2540.65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8995,57 +8995,57 @@
         <v>2314.9499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="19">
         <v>2247.85</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="19">
         <v>2494.9</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="19">
         <v>2159.4</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="19">
         <v>2122.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="19">
         <v>2116.6999999999998</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="19">
         <v>2433.9</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="19">
         <v>2516.25</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="19">
         <v>2540.65</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="19">
         <v>2196</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="19">
         <v>2314.9499999999998</v>
       </c>
@@ -9064,9 +9064,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>5.4139999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>2205.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>2296.65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>1988.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -9270,57 +9270,57 @@
         <v>2104.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>1991.65</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>1952</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>1896.65</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="19">
         <v>1875.75</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>2205.15</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>2296.65</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>2318</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>1988.6</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="19">
         <v>2104.5</v>
       </c>
@@ -9339,9 +9339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>5.657</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>5.6470000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>2729.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>2818.2000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>2860.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>2574.1999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -9548,57 +9548,57 @@
         <v>2671.7999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="19">
         <v>2528.4499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="19">
         <v>2494.9</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" s="19">
         <v>2379</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="19">
         <v>2397.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D19" s="19">
         <v>2397.3000000000002</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="19">
         <v>2729.75</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="19">
         <v>2818.2</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="19">
         <v>2860.9</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D24" s="19">
         <v>2574.1999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D25" s="19">
         <v>2671.8</v>
       </c>

--- a/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
+++ b/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\Programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D033B442-1F16-4962-8C4C-1FB733465254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DD58F-2162-4690-957C-A140C278316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Wells" sheetId="1" r:id="rId1"/>
@@ -699,20 +699,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="16" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5546875" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -780,7 +780,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -815,7 +815,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
@@ -849,7 +849,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -919,7 +919,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>25</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>26</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>27</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>28</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>29</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>30</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>35</v>
       </c>
@@ -1614,293 +1614,293 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C51" s="15"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="15"/>
       <c r="D55" s="19"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C56" s="15"/>
       <c r="D56" s="19"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C57" s="15"/>
       <c r="D57" s="19"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C58" s="16"/>
       <c r="D58" s="19"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C59" s="15"/>
       <c r="D59" s="19"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C60" s="15"/>
       <c r="D60" s="19"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C61" s="15"/>
       <c r="D61" s="19"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C62" s="15"/>
       <c r="D62" s="19"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C63" s="15"/>
       <c r="D63" s="19"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C64" s="15"/>
       <c r="D64" s="19"/>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C65" s="15"/>
       <c r="D65" s="19"/>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C66" s="15"/>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C67" s="15"/>
       <c r="D67" s="19"/>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C68" s="15"/>
       <c r="D68" s="19"/>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C69" s="15"/>
       <c r="D69" s="19"/>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C70" s="15"/>
       <c r="D70" s="19"/>
     </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C71" s="15"/>
       <c r="D71" s="19"/>
     </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C72" s="15"/>
       <c r="D72" s="19"/>
     </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C73" s="15"/>
       <c r="D73" s="19"/>
     </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C74" s="15"/>
       <c r="D74" s="19"/>
     </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C75" s="15"/>
       <c r="D75" s="19"/>
     </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C76" s="15"/>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C77" s="15"/>
       <c r="D77" s="19"/>
     </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C78" s="15"/>
       <c r="D78" s="19"/>
     </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C79" s="15"/>
       <c r="D79" s="19"/>
     </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D80" s="19"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="D81" s="19"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C82" s="15"/>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C83" s="15"/>
       <c r="D83" s="19"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C84" s="15"/>
       <c r="D84" s="19"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C85" s="15"/>
       <c r="D85" s="19"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C86" s="15"/>
       <c r="D86" s="19"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87" s="15"/>
       <c r="D87" s="19"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" s="15"/>
       <c r="D88" s="19"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C89" s="15"/>
       <c r="D89" s="19"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C90" s="15"/>
       <c r="D90" s="19"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C91" s="15"/>
       <c r="D91" s="19"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C92" s="15"/>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C93" s="15"/>
       <c r="D93" s="19"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C94" s="15"/>
       <c r="D94" s="19"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C95" s="15"/>
       <c r="D95" s="19"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C96" s="15"/>
       <c r="D96" s="19"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C97" s="15"/>
       <c r="D97" s="19"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C98" s="15"/>
       <c r="D98" s="19"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C99" s="15"/>
       <c r="D99" s="19"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C100" s="15"/>
       <c r="D100" s="19"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C101" s="15"/>
       <c r="D101" s="19"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C102" s="15"/>
       <c r="D102" s="19"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C103" s="15"/>
       <c r="D103" s="19"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C104" s="15"/>
       <c r="D104" s="19"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C105" s="15"/>
       <c r="D105" s="19"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C106" s="15"/>
       <c r="D106" s="19"/>
     </row>
@@ -1918,9 +1918,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -1956,7 +1956,7 @@
         <v>5.5960000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>5.5890000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>5.5620000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>1.9810000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>2241.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>2269.2000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -2126,57 +2126,57 @@
         <v>2077.0499999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="19">
         <v>1964.2</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="19">
         <v>1921.5</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="19">
         <v>1753.75</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="19">
         <v>1836.1</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="19">
         <v>1836.1</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="19">
         <v>2135</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="19">
         <v>2241.75</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="19">
         <v>2269.1999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="19">
         <v>2013</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>2077.0500000000002</v>
       </c>
@@ -2195,9 +2195,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>5.5659999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>5.5430000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>2629.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>2729.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>2711.4500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>2519.2999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="14">
         <v>44266</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>2351.5500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>44273</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>2403.4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>44276</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>2781.6</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <v>44283</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>2217.35</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14">
         <v>44311</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>2192.9499999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14">
         <v>44318</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <v>44332</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>2629.1</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <v>44340</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>2729.75</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14">
         <v>44347</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>2711.45</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="22">
         <v>44352</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="14">
         <v>44359</v>
       </c>
@@ -2539,9 +2539,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>5.3019999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>5.2960000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>1817.8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44352</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>1531.1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1634.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="14">
         <v>44266</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1467.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>44273</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14">
         <v>44276</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>1332.85</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14">
         <v>44283</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>1338.95</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14">
         <v>44311</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14">
         <v>44318</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14">
         <v>44332</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14">
         <v>44340</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14">
         <v>44347</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>1817.8</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="14">
         <v>44352</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>1531.1</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="14">
         <v>44359</v>
       </c>
@@ -2880,9 +2880,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>5.4459999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>5.4260000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>5.444</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1872.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>2031.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>2083.15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>2183.8000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1918.45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44266</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44273</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1823.9</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44276</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>1701.9</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44283</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1726.3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44311</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>1714.1</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44318</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44332</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>2031.3</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44340</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>2083.15</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="14">
         <v>44347</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>2183.8000000000002</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="22">
         <v>44352</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>1918.45</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="14">
         <v>44359</v>
       </c>
@@ -3224,9 +3224,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>5.2240000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>5.226</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>5.2229999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1.1819999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>1906.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>2061.7999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>1759.85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>1875.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -3444,7 +3444,7 @@
         <v>1735.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>1601.25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>1610.4</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>1906.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>2061.8000000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1759.85</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -3568,9 +3568,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>5.556</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>5.5519999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>5.5590000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>0.95499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>2067.9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>2092.3000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>1738.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>1866.6000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -3796,7 +3796,7 @@
         <v>1753.75</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>1558.55</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>1625.65</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>1653.1</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>2092.3000000000002</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>1738.5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -3909,9 +3909,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>5.7380000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>5.7839999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>5.798</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>2211.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>2232.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>1872.6999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>2022.1499999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>1918.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>1894.05</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>1698.85</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>1802.55</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>2211.25</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>2232.6</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -4252,9 +4252,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>5.4829999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>5.484</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>5.4740000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>6.31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -4417,7 +4417,7 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19">
         <v>5.2</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="19">
         <v>4.83</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>1473.15</v>
       </c>
     </row>
-    <row r="17" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="19">
         <v>4.8099999999999996</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>1467.05</v>
       </c>
     </row>
-    <row r="18" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="19">
         <v>4.79</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>1460.95</v>
       </c>
     </row>
-    <row r="19" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="19" t="s">
         <v>49</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="19">
         <v>5.85</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="21" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="19">
         <v>6.21</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>1894.05</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="19">
         <v>6.31</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>1924.55</v>
       </c>
     </row>
-    <row r="23" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="19">
         <v>5.27</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>1607.35</v>
       </c>
     </row>
-    <row r="24" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="19">
         <v>5.68</v>
       </c>
@@ -4520,9 +4520,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>5.4980000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>5.4950000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>5.5129999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>1711.0500000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>1845.25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>1540.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>1680.55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>1570.75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>1406.05</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>1442.65</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -4781,7 +4781,7 @@
         <v>1357.25</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>1711.05</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>1845.25</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -4836,7 +4836,7 @@
         <v>1540.25</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -4861,9 +4861,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>5.1020000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1796.4499999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>1939.8000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>1778.15</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>1613.45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1555.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1460.95</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>1796.45</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -5207,14 +5207,14 @@
       <selection activeCell="A14" sqref="A14:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G1" s="24" t="s">
         <v>36</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <f t="shared" ref="A3:A14" si="0">G3</f>
         <v>44266</v>
@@ -5278,7 +5278,7 @@
         <v>1872.7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <f t="shared" si="0"/>
         <v>44273</v>
@@ -5308,7 +5308,7 @@
         <v>1784.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <f t="shared" si="0"/>
         <v>44276</v>
@@ -5344,7 +5344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <f t="shared" si="0"/>
         <v>44283</v>
@@ -5380,7 +5380,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <f t="shared" si="0"/>
         <v>44311</v>
@@ -5407,7 +5407,7 @@
         <v>1686.65</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <f t="shared" si="0"/>
         <v>44318</v>
@@ -5434,7 +5434,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <f t="shared" si="0"/>
         <v>44332</v>
@@ -5461,7 +5461,7 @@
         <v>2058.75</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>44340</v>
@@ -5488,7 +5488,7 @@
         <v>2147.1999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>44347</v>
@@ -5515,7 +5515,7 @@
         <v>2202.1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <f t="shared" si="0"/>
         <v>44352</v>
@@ -5542,7 +5542,7 @@
         <v>1912.35</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>44359</v>
@@ -5569,7 +5569,7 @@
         <v>2046.55</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32"/>
       <c r="B14" s="28"/>
       <c r="C14" s="33"/>
@@ -5577,19 +5577,19 @@
       <c r="G14" s="29"/>
       <c r="H14" s="30"/>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5605,9 +5605,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>5.0750000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>5.0839999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>5.1340000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>1436.55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>1604.3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>1717.1499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>1512.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>1610.4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="14">
         <v>44266</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>1433.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="14">
         <v>44273</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>1372.5</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="14">
         <v>44276</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>1287.0999999999999</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="14">
         <v>44283</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1308.45</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="14">
         <v>44311</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>1265.75</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="14">
         <v>44318</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>1436.55</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="14">
         <v>44332</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>1604.3</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="14">
         <v>44340</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>1717.15</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="14">
         <v>44347</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="22">
         <v>44352</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>1512.8</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="14">
         <v>44359</v>
       </c>
@@ -5949,9 +5949,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>1375.55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>5.3440000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>5.3209999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>1723.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>1869.6499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>1619.55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1375.55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>1485.35</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>1375.55</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>1418.25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -6213,7 +6213,7 @@
         <v>1387.75</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>1723.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>1869.65</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>1619.55</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -6293,9 +6293,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -6313,7 +6313,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>5.1310000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>5.1260000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>5.1280000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>1628.7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>1390.8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -6502,7 +6502,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>1302.3499999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>1253.55</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>1140.7</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>1189.5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>1134.5999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>1479.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -6601,7 +6601,7 @@
         <v>1628.7</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -6612,7 +6612,7 @@
         <v>1390.8</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -6637,9 +6637,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -6675,7 +6675,7 @@
         <v>5.3310000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>5.3250000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>5.3070000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>1942.8500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>1717.1499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1802.55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -6857,7 +6857,7 @@
         <v>1656.15</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>1592.1</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>1500.6</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>1534.15</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>1497.55</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>1805.6</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>1942.85</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>1717.15</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -6981,9 +6981,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>5.6559999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>5.7489999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>1.9990000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>2.1909999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>1997.75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>1793.3999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>1863.5500000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>1711.05</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1650.05</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>1540.25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>1576.85</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>1543.3</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>1677.5</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>1997.75</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>1793.4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -7325,9 +7325,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -7363,7 +7363,7 @@
         <v>5.2359999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>5.2430000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>5.2409999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>1753.75</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>1808.6499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>1549.4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>1650.05</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="14">
         <v>44266</v>
       </c>
@@ -7545,7 +7545,7 @@
         <v>1476.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="14">
         <v>44273</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="14">
         <v>44276</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>1311.5</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="14">
         <v>44283</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>1338.95</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="14">
         <v>44311</v>
       </c>
@@ -7589,7 +7589,7 @@
         <v>1293.2</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="14">
         <v>44318</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="14">
         <v>44332</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1662.25</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="14">
         <v>44340</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>1753.75</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="14">
         <v>44347</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>1808.65</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="22">
         <v>44352</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>1549.4</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="14">
         <v>44359</v>
       </c>
@@ -7671,12 +7671,12 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -7694,7 +7694,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>5.1020000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>5.0620000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>4.9669999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>2.9409999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>6.26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19">
         <v>5.19</v>
       </c>
@@ -7850,7 +7850,7 @@
         <v>1582.95</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="21">
         <v>4.9000000000000004</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>1494.5</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="19">
         <v>4.6500000000000004</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>1418.25</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="19">
         <v>4.75</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>1448.75</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="19">
         <v>4.58</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>1396.9</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="19">
         <v>5.0999999999999996</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>1555.5</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="19">
         <v>5.77</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>1759.85</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="19">
         <v>6.1</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1860.5</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="19">
         <v>6.26</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>1909.3</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="19">
         <v>5.31</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>1619.55</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="19">
         <v>5.75</v>
       </c>
@@ -7984,12 +7984,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>4.9089999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>4.9089999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>4.9029999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>1.8779999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8097,7 +8097,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8166,9 +8166,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>4.8659999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>4.8760000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>4.883</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>1869.6499999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>2028.25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19">
         <v>6.3</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>1921.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="21">
         <v>6.03</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>1839.15</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="19">
         <v>5.69</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1735.45</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="19">
         <v>5.9</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>1799.5</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="19">
         <v>5.8</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="19" t="s">
         <v>49</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
         <v>49</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="19">
         <v>7</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="19">
         <v>7.12</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>2171.6</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="19">
         <v>6.13</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1869.65</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="19">
         <v>6.65</v>
       </c>
@@ -8521,9 +8521,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>5.4020000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>5.351</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>5.3620000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>2064.85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8725,52 +8725,52 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F14" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F15" s="19">
         <v>2006.9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F16" s="19">
         <v>1967.25</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F17" s="19">
         <v>1967.25</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F20" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F21" s="19">
         <v>2074</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="19">
         <v>2064.85</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="19">
         <v>2074</v>
       </c>
@@ -8789,9 +8789,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>5.2560000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -8863,7 +8863,7 @@
         <v>5.21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>2433.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>2516.25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>2540.65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -8995,57 +8995,57 @@
         <v>2314.9499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="19">
         <v>2247.85</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E17" s="19">
         <v>2494.9</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="19">
         <v>2159.4</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="19">
         <v>2122.8000000000002</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E20" s="19">
         <v>2116.6999999999998</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E22" s="19">
         <v>2433.9</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E23" s="19">
         <v>2516.25</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E24" s="19">
         <v>2540.65</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E25" s="19">
         <v>2196</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E26" s="19">
         <v>2314.9499999999998</v>
       </c>
@@ -9064,9 +9064,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>5.4189999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>5.4139999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -9138,7 +9138,7 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>2205.15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>2296.65</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -9255,7 +9255,7 @@
         <v>1988.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -9270,57 +9270,57 @@
         <v>2104.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="19">
         <v>1991.65</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="19">
         <v>1952</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="19">
         <v>1896.65</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="19">
         <v>1875.75</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="19">
         <v>2205.15</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="19">
         <v>2296.65</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="19">
         <v>2318</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="19">
         <v>1988.6</v>
       </c>
     </row>
-    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="19">
         <v>2104.5</v>
       </c>
@@ -9339,9 +9339,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>38</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>44266</v>
       </c>
@@ -9377,7 +9377,7 @@
         <v>5.657</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44273</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44276</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>5.6470000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44283</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44311</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44318</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44332</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>2729.75</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44340</v>
       </c>
@@ -9503,7 +9503,7 @@
         <v>2818.2000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44347</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>2860.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <v>44352</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>2574.1999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44359</v>
       </c>
@@ -9548,57 +9548,57 @@
         <v>2671.7999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="19">
         <v>2528.4499999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="19">
         <v>2494.9</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="19">
         <v>2379</v>
       </c>
     </row>
-    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="19">
         <v>2397.3000000000002</v>
       </c>
     </row>
-    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="19">
         <v>2397.3000000000002</v>
       </c>
     </row>
-    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="19">
         <v>2729.75</v>
       </c>
     </row>
-    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="19">
         <v>2818.2</v>
       </c>
     </row>
-    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="19">
         <v>2860.9</v>
       </c>
     </row>
-    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="19">
         <v>2574.1999999999998</v>
       </c>
     </row>
-    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="19">
         <v>2671.8</v>
       </c>

--- a/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
+++ b/toolkit/debug/auto_well_data/sheets/WMOCNewFormattest1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jason\Desktop\programming\Python\FGCU-HG-Toolkit\toolkit\debug\auto_well_data\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709DD58F-2162-4690-957C-A140C278316E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57706369-C13A-45C1-AEFF-52616B81F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5204,7 +5204,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:I14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
